--- a/biology/Botanique/Leersia_oryzoides/Leersia_oryzoides.xlsx
+++ b/biology/Botanique/Leersia_oryzoides/Leersia_oryzoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leersia oryzoides, la Léersie faux-riz, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], largement répandue en Europe, en Asie et en Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leersia oryzoides, la Léersie faux-riz, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, largement répandue en Europe, en Asie et en Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes herbacées vivaces aux rhizomes allongés, aux tiges (chaumes) dressées ou géniculées ascendantes ou décombantes, pouvant atteindre 120 cm de long[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes herbacées vivaces aux rhizomes allongés, aux tiges (chaumes) dressées ou géniculées ascendantes ou décombantes, pouvant atteindre 120 cm de long.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante fournit habitat et nourriture (graines, rhizomes) pour la faune des zones humides, notamment les oiseaux aquatiques. Elle peut être utilisée pour restaurer les zones humides et stabiliser les sols le long des cours d'eau et fossés, et atténuer le ruissellement agricole[3].
-C'est également une adventice des rizières[4], qui est en outre l'hôte alternatif du virus de la jaunisse nanisante de l'orge (ByYDV, Barley Yellow Dwarf Luteovirus), agent phytopathogène responsable aussi de la jaunisse du riz[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante fournit habitat et nourriture (graines, rhizomes) pour la faune des zones humides, notamment les oiseaux aquatiques. Elle peut être utilisée pour restaurer les zones humides et stabiliser les sols le long des cours d'eau et fossés, et atténuer le ruissellement agricole.
+C'est également une adventice des rizières, qui est en outre l'hôte alternatif du virus de la jaunisse nanisante de l'orge (ByYDV, Barley Yellow Dwarf Luteovirus), agent phytopathogène responsable aussi de la jaunisse du riz. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (27 avril 2017)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 avril 2017) :
 Asperella oryzoides (L.) Lam.
 Asprella flexuosa Dulac, nom. superfl.
 Asprella oryzoides (L.) Schreb.
@@ -625,9 +643,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (27 avril 2017)[7] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 Leersia oryzoides subsp. japonica (Hack.) T. Koyama
 Leersia oryzoides var. japonica Hack.
 Leersia oryzoides var. latifolia Honda
